--- a/ajedrez.xlsx
+++ b/ajedrez.xlsx
@@ -46,12 +46,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -81,9 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +395,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,9 +435,9 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="J2">
@@ -460,7 +467,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="J3">
@@ -500,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L3:L9" si="1">J4-49</f>
+        <f t="shared" ref="L4:L9" si="1">J4-49</f>
         <v>2</v>
       </c>
       <c r="N4">

--- a/ajedrez.xlsx
+++ b/ajedrez.xlsx
@@ -46,7 +46,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -56,6 +56,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -87,10 +105,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +416,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,9 +453,9 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -462,7 +483,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -495,11 +516,11 @@
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="5"/>
       <c r="J4">
         <v>51</v>
       </c>
@@ -525,11 +546,11 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="5"/>
       <c r="J5">
         <v>52</v>
       </c>
@@ -555,11 +576,11 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
       <c r="J6">
         <v>53</v>
       </c>
